--- a/svm_feature_selector_results.xlsx
+++ b/svm_feature_selector_results.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,51 +547,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="E5" t="n">
         <v>0.625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E6" t="n">
         <v>0.625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree_ensemble</t>
+          <t>k_best</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,6 +608,28 @@
       </c>
       <c r="F7" t="n">
         <v>0.625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tree_ensemble</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7692307692307692</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7777777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +693,7 @@
         <v>0.8375634517766497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9103634690591214</v>
+        <v>0.9103749712445366</v>
       </c>
       <c r="D2" t="n">
         <v>0.8103448275862069</v>
@@ -804,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,89 +913,111 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200855.1438746502</v>
+        <v>138096.4462098773</v>
       </c>
       <c r="C4" t="n">
-        <v>286.0316719291677</v>
+        <v>240.9580185751678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3112045591234943</v>
+        <v>0.5264238658982328</v>
       </c>
       <c r="E4" t="n">
-        <v>200855.1438746502</v>
+        <v>138096.4462098773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3837651802157728</v>
+        <v>0.5405415542061194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135995.9605603277</v>
+        <v>200841.6255456053</v>
       </c>
       <c r="C5" t="n">
-        <v>244.4955919425885</v>
+        <v>286.046904161959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5336270916216388</v>
+        <v>0.3112509177241988</v>
       </c>
       <c r="E5" t="n">
-        <v>135995.9605603277</v>
+        <v>200841.6255456053</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5492336765960824</v>
+        <v>0.3836849478714996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138862.1596878163</v>
+        <v>202131.0026579842</v>
       </c>
       <c r="C6" t="n">
-        <v>242.2131973141877</v>
+        <v>286.63957237921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5237979936280597</v>
+        <v>0.3068292382021085</v>
       </c>
       <c r="E6" t="n">
-        <v>138862.1596878163</v>
+        <v>202131.0026579842</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5385183895884449</v>
+        <v>0.3476626898138528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>k_best</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>139996.4809675353</v>
+      </c>
+      <c r="C7" t="n">
+        <v>243.3795321650808</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5199080493085489</v>
+      </c>
+      <c r="E7" t="n">
+        <v>139996.4809675353</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5342810146344621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>tree_ensemble</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>138862.1596878162</v>
-      </c>
-      <c r="C7" t="n">
-        <v>242.2131973141876</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.52379799362806</v>
-      </c>
-      <c r="E7" t="n">
-        <v>138862.1596878162</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5385183895884452</v>
+      <c r="B8" t="n">
+        <v>139996.4809675353</v>
+      </c>
+      <c r="C8" t="n">
+        <v>243.3795321650809</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5199080493085493</v>
+      </c>
+      <c r="E8" t="n">
+        <v>139996.4809675353</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5342810146344623</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,27 +1047,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>AUROC</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>R-Squared</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Explained Variance</t>
+          <t>F1-Score</t>
         </is>
       </c>
     </row>
@@ -1034,19 +1078,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771.0618257121836</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="C2" t="n">
-        <v>23.20674264665286</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03994994838526422</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0618257121836</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06707541193223643</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="3">
@@ -1056,107 +1100,129 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.64156181453</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="C3" t="n">
-        <v>23.71819258738859</v>
+        <v>0.9720588235294116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02428690309936576</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>783.64156181453</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02668563236008648</v>
+        <v>0.8648648648648649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>771.0618257121836</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4" t="n">
-        <v>23.20674264665286</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03994994838526422</v>
+        <v>0.9375</v>
       </c>
       <c r="E4" t="n">
-        <v>771.0618257121836</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06707541193223643</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>771.0618257121836</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="C5" t="n">
-        <v>23.20674264665286</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03994994838526422</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>771.0618257121836</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06707541193223643</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>874.934386714481</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="C6" t="n">
-        <v>23.85693584115208</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08938190831702086</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>874.934386714481</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.001678464251317235</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>k_best</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9602941176470587</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>tree_ensemble</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>810.4255805992261</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.17189146984752</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.009061912467981381</v>
-      </c>
-      <c r="E7" t="n">
-        <v>810.4255805992261</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.04765140206264018</v>
+      <c r="B8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9073529411764706</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,73 +1323,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>838.9685978425936</v>
+        <v>949.8491750083919</v>
       </c>
       <c r="C4" t="n">
-        <v>23.37343060411245</v>
+        <v>26.99998500002881</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04460085923457169</v>
+        <v>-0.1826584057001537</v>
       </c>
       <c r="E4" t="n">
-        <v>838.9685978425936</v>
+        <v>949.8491750083919</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04727450268175903</v>
+        <v>-0.1363275042102856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.8491750083919</v>
+        <v>838.9685978425936</v>
       </c>
       <c r="C5" t="n">
-        <v>26.99998500002881</v>
+        <v>23.37343060411245</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1826584057001537</v>
+        <v>-0.04460085923457169</v>
       </c>
       <c r="E5" t="n">
-        <v>949.8491750083919</v>
+        <v>838.9685978425936</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1363275042102856</v>
+        <v>0.04727450268175903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949.8491750083919</v>
+        <v>847.2855046715224</v>
       </c>
       <c r="C6" t="n">
-        <v>26.99998500002881</v>
+        <v>23.83677445628707</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1826584057001537</v>
+        <v>-0.05495625041609342</v>
       </c>
       <c r="E6" t="n">
-        <v>949.8491750083919</v>
+        <v>847.2855046715224</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1363275042102856</v>
+        <v>-0.04173469671420582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree_ensemble</t>
+          <t>k_best</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1339,6 +1405,28 @@
         <v>949.8491750083919</v>
       </c>
       <c r="F7" t="n">
+        <v>-0.1363275042102856</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tree_ensemble</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>949.8491750083919</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.99998500002881</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1826584057001537</v>
+      </c>
+      <c r="E8" t="n">
+        <v>949.8491750083919</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.1363275042102856</v>
       </c>
     </row>
@@ -1353,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,51 +1528,51 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08439324021835891</v>
+        <v>0.07845397247744344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2277594722489267</v>
+        <v>0.2170142833552982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3816117809472047</v>
+        <v>0.4251315366916163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08439324021835891</v>
+        <v>0.07845397247744344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.385055520521784</v>
+        <v>0.4284854430311872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.08439324021835891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2170142833552982</v>
+        <v>0.2277594722489267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4251315366916163</v>
+        <v>0.3816117809472047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.08439324021835891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4284854430311872</v>
+        <v>0.385055520521784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1506,7 +1594,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree_ensemble</t>
+          <t>k_best</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1522,6 +1610,28 @@
         <v>0.07845397247744344</v>
       </c>
       <c r="F7" t="n">
+        <v>0.4284854430311872</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tree_ensemble</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2170142833552982</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4251315366916163</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.4284854430311872</v>
       </c>
     </row>
@@ -1536,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,73 +1733,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mutual_info</t>
+          <t>HSICLasso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.0728879582587</v>
+        <v>92.49407709239547</v>
       </c>
       <c r="C4" t="n">
-        <v>8.478179103033682</v>
+        <v>7.22984441477097</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006258139009555297</v>
+        <v>0.1911829142746355</v>
       </c>
       <c r="E4" t="n">
-        <v>115.0728879582587</v>
+        <v>92.49407709239547</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003443562682253321</v>
+        <v>0.1912147854785744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>mutual_info</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.65323281455548</v>
+        <v>115.0728879582587</v>
       </c>
       <c r="C5" t="n">
-        <v>7.248469590961045</v>
+        <v>8.478179103033682</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2422583430532704</v>
+        <v>-0.006258139009555297</v>
       </c>
       <c r="E5" t="n">
-        <v>86.65323281455548</v>
+        <v>115.0728879582587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2490378392504294</v>
+        <v>-0.003443562682253321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k_best</t>
+          <t>lasso</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.65323281455548</v>
+        <v>111.9452031093499</v>
       </c>
       <c r="C6" t="n">
-        <v>7.248469590961045</v>
+        <v>8.345431612714489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2422583430532704</v>
+        <v>0.02109199003746187</v>
       </c>
       <c r="E6" t="n">
-        <v>86.65323281455548</v>
+        <v>111.9452031093499</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2490378392504294</v>
+        <v>0.02563509940063813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tree_ensemble</t>
+          <t>k_best</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1706,6 +1816,28 @@
       </c>
       <c r="F7" t="n">
         <v>0.2490378392504294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tree_ensemble</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.49407709239547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.22984441477097</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1911829142746355</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.49407709239547</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1912147854785744</v>
       </c>
     </row>
   </sheetData>

--- a/svm_feature_selector_results.xlsx
+++ b/svm_feature_selector_results.xlsx
@@ -13,8 +13,9 @@
     <sheet name="crime" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="breast_cancer_wisconsin" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="breast_cancer" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="skillcraft" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="parkinson" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="pumadyn32nm" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="skillcraft" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="parkinson" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -693,7 +694,7 @@
         <v>0.8375634517766497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9103749712445366</v>
+        <v>0.9103519668737061</v>
       </c>
       <c r="D2" t="n">
         <v>0.8103448275862069</v>
@@ -826,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1019,28 @@
       </c>
       <c r="F8" t="n">
         <v>0.5342810146344623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AGP-SHAP-SGPR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>218919.9888111077</v>
+      </c>
+      <c r="C9" t="n">
+        <v>297.1316539280664</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2492545259187763</v>
+      </c>
+      <c r="E9" t="n">
+        <v>218919.9888111077</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2870176308780629</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1214,7 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9602941176470587</v>
+        <v>0.9602941176470589</v>
       </c>
       <c r="D7" t="n">
         <v>0.9375</v>
@@ -1441,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1488,19 +1511,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1193064873841242</v>
+        <v>0.8988217337128506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2703537180791969</v>
+        <v>0.7473466048256284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1257863062963218</v>
+        <v>0.0009775604945992944</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1193064873841242</v>
+        <v>0.8988217337128506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.130227338685429</v>
+        <v>0.00112384287895817</v>
       </c>
     </row>
     <row r="3">
@@ -1510,19 +1533,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1193064873841242</v>
+        <v>0.8988217337128506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2703537180791969</v>
+        <v>0.7473466048256284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1257863062963218</v>
+        <v>0.0009775604945992944</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1193064873841242</v>
+        <v>0.8988217337128506</v>
       </c>
       <c r="F3" t="n">
-        <v>0.130227338685429</v>
+        <v>0.00112384287895817</v>
       </c>
     </row>
     <row r="4">
@@ -1532,19 +1555,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9077728067439441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2170142833552982</v>
+        <v>0.7426893264774922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4251315366916163</v>
+        <v>-0.008971378744748071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9077728067439441</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4284854430311872</v>
+        <v>-0.008794240002528264</v>
       </c>
     </row>
     <row r="5">
@@ -1554,19 +1577,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08439324021835891</v>
+        <v>0.9077728067439441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2277594722489267</v>
+        <v>0.7426893264774922</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3816117809472047</v>
+        <v>-0.008971378744748071</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08439324021835891</v>
+        <v>0.9077728067439441</v>
       </c>
       <c r="F5" t="n">
-        <v>0.385055520521784</v>
+        <v>-0.008794240002528264</v>
       </c>
     </row>
     <row r="6">
@@ -1576,19 +1599,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9020426656940039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2170142833552982</v>
+        <v>0.7486310730723137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4251315366916163</v>
+        <v>-0.002602441194946792</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9020426656940039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4284854430311872</v>
+        <v>-0.002395749588133489</v>
       </c>
     </row>
     <row r="7">
@@ -1598,19 +1621,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9020426656940039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2170142833552982</v>
+        <v>0.7486310730723137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4251315366916163</v>
+        <v>-0.002602441194946792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9020426656940039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4284854430311872</v>
+        <v>-0.002395749588133489</v>
       </c>
     </row>
     <row r="8">
@@ -1620,19 +1643,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9018359002685689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2170142833552982</v>
+        <v>0.7482513486882283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4251315366916163</v>
+        <v>-0.002372625546330553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07845397247744344</v>
+        <v>0.9018359002685689</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4284854430311872</v>
+        <v>-0.002372284496290789</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AGP-SHAP-SGPR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9018359002685689</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7482513486882283</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.002372625546330553</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9018359002685689</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.002372284496290789</v>
       </c>
     </row>
   </sheetData>
@@ -1693,6 +1738,211 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1193064873841242</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2703537180791969</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1257863062963218</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1193064873841242</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.130227338685429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sobol</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1193064873841242</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2703537180791969</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1257863062963218</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1193064873841242</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.130227338685429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSICLasso</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2170142833552982</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4251315366916163</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4284854430311872</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mutual_info</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08439324021835891</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2277594722489267</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3816117809472047</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08439324021835891</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.385055520521784</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2170142833552982</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4251315366916163</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4284854430311872</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>k_best</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2170142833552982</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4251315366916163</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4284854430311872</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tree_ensemble</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2170142833552982</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4251315366916163</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07845397247744344</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4284854430311872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Feature Selector</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>R-Squared</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Explained Variance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AGP-SHAP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>114.326398399031</v>
       </c>
       <c r="C2" t="n">
@@ -1837,6 +2087,28 @@
         <v>92.49407709239547</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1912147854785744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AGP-SHAP-SGPR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.49407709239547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.22984441477097</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1911829142746355</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92.49407709239547</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.1912147854785744</v>
       </c>
     </row>
